--- a/190109.xlsx
+++ b/190109.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\겨울방학 방과후 엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="상대참조" sheetId="6" r:id="rId5"/>
-    <sheet name="절대참조" sheetId="5" r:id="rId6"/>
+    <sheet name="제1작업" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="상대참조" sheetId="6" r:id="rId6"/>
+    <sheet name="절대참조" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="203">
   <si>
     <t>관리번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,6 +657,130 @@
   </si>
   <si>
     <t>컴퓨터 실기 성적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하스스톤</t>
+  </si>
+  <si>
+    <t>관리코드</t>
+  </si>
+  <si>
+    <t>게임명</t>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>개발사</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>Ccg-14-9</t>
+  </si>
+  <si>
+    <t>역할수행</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>Mob-09-1</t>
+  </si>
+  <si>
+    <t>리그 오브 레전드</t>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+  </si>
+  <si>
+    <t>라이엇게임즈</t>
+  </si>
+  <si>
+    <t>Fps-07-1</t>
+  </si>
+  <si>
+    <t>크로스파이어</t>
+  </si>
+  <si>
+    <t>아케이드</t>
+  </si>
+  <si>
+    <t>스마일게이트</t>
+  </si>
+  <si>
+    <t>Rpg-05-5</t>
+  </si>
+  <si>
+    <t>던전 앤 파이터</t>
+  </si>
+  <si>
+    <t>네오플</t>
+  </si>
+  <si>
+    <t>Mmo-10-9</t>
+  </si>
+  <si>
+    <t>월드 오브 탱크</t>
+  </si>
+  <si>
+    <t>워게이밍넷</t>
+  </si>
+  <si>
+    <t>Mmo-03-4</t>
+  </si>
+  <si>
+    <t>메이플스토리</t>
+  </si>
+  <si>
+    <t>위젯스튜디오</t>
+  </si>
+  <si>
+    <t>Mmo-12-2</t>
+  </si>
+  <si>
+    <t>블레이드 앤 소울</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>Spt-12-2</t>
+  </si>
+  <si>
+    <t>피파 온라인3</t>
+  </si>
+  <si>
+    <t>스피어헤드</t>
+  </si>
+  <si>
+    <t>최고 수익금(백만달러)</t>
+  </si>
+  <si>
+    <t>역할수행 업데이트 만족도 합계</t>
+  </si>
+  <si>
+    <t>2010년 이후 서비스된 게임의 평균 수익금(백만달러)</t>
+  </si>
+  <si>
+    <t>수익금
+(백만달러)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트
+만족도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스
+순서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,8 +1190,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J14"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5">
+        <v>217</v>
+      </c>
+      <c r="G5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H5" s="5">
+        <v>41653</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6">
+        <v>2100</v>
+      </c>
+      <c r="G6">
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>1400</v>
+      </c>
+      <c r="G7">
+        <v>4.8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>39205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8">
+        <v>1600</v>
+      </c>
+      <c r="G8">
+        <v>4.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>38574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9">
+        <v>471</v>
+      </c>
+      <c r="G9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H9" s="5">
+        <v>40402</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10">
+        <v>279</v>
+      </c>
+      <c r="G10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="5">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11">
+        <v>178</v>
+      </c>
+      <c r="G11">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>41090</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12">
+        <v>163</v>
+      </c>
+      <c r="G12">
+        <v>4.2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>41251</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J14"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J14"/>
   <sheetViews>
@@ -1597,7 +1976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J14"/>
   <sheetViews>
@@ -1845,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J14"/>
   <sheetViews>
@@ -2098,12 +2477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2192,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
